--- a/project_files/ConvRNN_layer_1_no_Attention.xlsx
+++ b/project_files/ConvRNN_layer_1_no_Attention.xlsx
@@ -415,16 +415,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>17.04952789279479</v>
+        <v>17.95500663279169</v>
       </c>
       <c r="C2">
-        <v>8.699985504150391</v>
+        <v>10.27372646331787</v>
       </c>
       <c r="D2">
-        <v>5.76</v>
+        <v>6.62</v>
       </c>
       <c r="E2">
-        <v>0.907243080076685</v>
+        <v>0.8971493667929927</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -432,16 +432,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>14.73346002676736</v>
+        <v>14.76877601546984</v>
       </c>
       <c r="C3">
-        <v>10.04602527618408</v>
+        <v>11.66212177276611</v>
       </c>
       <c r="D3">
-        <v>6.49</v>
+        <v>7.37</v>
       </c>
       <c r="E3">
-        <v>0.9785635115301882</v>
+        <v>0.9784173339000368</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -449,16 +449,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>2.988268963158972</v>
+        <v>2.726994696085647</v>
       </c>
       <c r="C4">
-        <v>2.275938749313354</v>
+        <v>2.046205520629883</v>
       </c>
       <c r="D4">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="E4">
-        <v>0.941617617368522</v>
+        <v>0.9505758440998126</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -466,16 +466,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>2.988268963158972</v>
+        <v>2.726892314736134</v>
       </c>
       <c r="C5">
-        <v>2.275938749313354</v>
+        <v>2.046073913574219</v>
       </c>
       <c r="D5">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="E5">
-        <v>0.941617617368522</v>
+        <v>0.9505798530221522</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -483,16 +483,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>13.25995247810789</v>
+        <v>12.58162679321207</v>
       </c>
       <c r="C6">
-        <v>7.557357788085938</v>
+        <v>7.802098751068115</v>
       </c>
       <c r="D6">
-        <v>6.89</v>
+        <v>7.08</v>
       </c>
       <c r="E6">
-        <v>0.8417343266581442</v>
+        <v>0.857517469373574</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -500,16 +500,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>8.232044910927499</v>
+        <v>8.572025541679576</v>
       </c>
       <c r="C7">
-        <v>5.132556438446045</v>
+        <v>6.120454788208008</v>
       </c>
       <c r="D7">
-        <v>2.83</v>
+        <v>3.33</v>
       </c>
       <c r="E7">
-        <v>0.9356678230780445</v>
+        <v>0.9302336006405363</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -517,16 +517,16 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>11.2880338523568</v>
+        <v>9.165262519335704</v>
       </c>
       <c r="C8">
-        <v>7.375059604644775</v>
+        <v>6.709384441375732</v>
       </c>
       <c r="D8">
-        <v>5.32</v>
+        <v>5.1</v>
       </c>
       <c r="E8">
-        <v>0.8986852031213909</v>
+        <v>0.9331783782381344</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -534,16 +534,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>17.0413468135797</v>
+        <v>13.90684250844481</v>
       </c>
       <c r="C9">
-        <v>11.73012161254883</v>
+        <v>9.659384727478027</v>
       </c>
       <c r="D9">
-        <v>11.08</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="E9">
-        <v>0.7765793738417712</v>
+        <v>0.8511621495469708</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -551,16 +551,16 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>71.41375439231751</v>
+        <v>60.14826448621045</v>
       </c>
       <c r="C10">
-        <v>45.47724533081055</v>
+        <v>33.1715202331543</v>
       </c>
       <c r="D10">
-        <v>39.83</v>
+        <v>28.94</v>
       </c>
       <c r="E10">
-        <v>-1.183369683321516</v>
+        <v>-0.5487403543442707</v>
       </c>
     </row>
   </sheetData>
